--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1594397.687359261</v>
+        <v>1579300.579915299</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1848583.332998798</v>
+        <v>1861185.768789562</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2395347.547096098</v>
+        <v>2357862.325109813</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10352831.32596449</v>
+        <v>10377107.1685197</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>305.5398557403403</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>52.4477172670823</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>55.35547747869131</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>79.32920716089164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>35.90568944469409</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>163.5424857632414</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>57.50343408519502</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.60408762095435</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>171.7899060594152</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>150.8400357509153</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>201.330287938294</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>275.3952772796648</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.6180294004005</v>
       </c>
       <c r="T11" t="n">
-        <v>42.04792896687181</v>
+        <v>214.5661762382494</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1897708139312</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.3009637486068</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>102.1665731007174</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>53.50170169071298</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>35.42807039329294</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>152.3181986878412</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.9625068175369</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8727930405404</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>166.979088821895</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>204.3223887284403</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>53.36000736904411</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825082</v>
+        <v>45.4458084395868</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229334</v>
+        <v>20.90078060183534</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>128.78350070179</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>20.9375998192705</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.3345997681973</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>309.0773614149405</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>96.0467590815867</v>
+        <v>60.821152829764</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1028265769112</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>253.9309798111136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7554234621014</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>96.89780243894167</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I18" t="n">
-        <v>34.7188453351548</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.556718218862159</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S18" t="n">
-        <v>142.1850271380592</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>193.7635966276314</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8369022322176</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.8138502477291</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.2568614883001</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2464072976826</v>
+        <v>225.5650375952924</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>116.314159238692</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>253.8618990185138</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.3345997681973</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>309.0773614149405</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>96.0467590815867</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281404</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.6518631149661</v>
       </c>
       <c r="U20" t="n">
-        <v>136.2815479178901</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7554234621014</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>96.89780243894167</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I21" t="n">
-        <v>34.7188453351548</v>
+        <v>45.44580843958683</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.556718218862159</v>
+        <v>20.90078060183538</v>
       </c>
       <c r="S21" t="n">
-        <v>142.1850271380592</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>193.7635966276314</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8369022322176</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>243.4294442128939</v>
+        <v>225.5650375952918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>81.02492003497179</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>105.7019814512364</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>25.08949290126014</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>136.9575509524584</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>108.8137654404057</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1623.178216428726</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1254.215699488314</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>1254.215699488314</v>
+        <v>917.6180354585974</v>
       </c>
       <c r="E2" t="n">
-        <v>1254.215699488314</v>
+        <v>531.8297828603531</v>
       </c>
       <c r="F2" t="n">
-        <v>843.2297946987067</v>
+        <v>120.8438780707456</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>106.9204740093365</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>106.9204740093365</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1623.178216428726</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4415,10 +4415,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>358.5813018857447</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="C4" t="n">
-        <v>358.5813018857447</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="D4" t="n">
-        <v>358.5813018857447</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>324.5139302307475</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>155.5141299690799</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y4" t="n">
-        <v>358.5813018857447</v>
+        <v>471.4038777286579</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2660.880717841764</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2484.703230155934</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2484.703230155934</v>
       </c>
       <c r="U5" t="n">
-        <v>2300.748483799005</v>
+        <v>2484.703230155934</v>
       </c>
       <c r="V5" t="n">
-        <v>1969.685596455435</v>
+        <v>2484.703230155934</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.685596455435</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="X5" t="n">
-        <v>1596.219838194355</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="Y5" t="n">
-        <v>1206.080506218543</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="6">
@@ -4622,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>269.7756312415667</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D7" t="n">
-        <v>269.7756312415667</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E7" t="n">
-        <v>269.7756312415667</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F7" t="n">
-        <v>269.7756312415667</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.149526959219</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.149526959219</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1209.883828352469</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.149526959219</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>524.7650569960363</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.874376112625</v>
+        <v>1096.810264689886</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.911859172214</v>
+        <v>727.8477477494744</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.911859172214</v>
+        <v>727.8477477494744</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1236065739693</v>
+        <v>342.0594951512301</v>
       </c>
       <c r="F11" t="n">
-        <v>381.1377017843616</v>
+        <v>342.0594951512301</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>342.0594951512301</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399295</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399295</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>215.7775870444398</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>564.1738308751542</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>1048.666806192624</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1604.365138508513</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>2154.423253260181</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2628.639895377777</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2995.698445127841</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.122369699647</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.122369699647</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>3027.841531921465</v>
       </c>
       <c r="T11" t="n">
-        <v>2654.67643549613</v>
+        <v>2811.108020569698</v>
       </c>
       <c r="U11" t="n">
-        <v>2654.67643549613</v>
+        <v>2557.380979343504</v>
       </c>
       <c r="V11" t="n">
-        <v>2323.613548152559</v>
+        <v>2226.318091999934</v>
       </c>
       <c r="W11" t="n">
-        <v>2323.613548152559</v>
+        <v>1873.549436729819</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.613548152559</v>
+        <v>1873.549436729819</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.474216176747</v>
+        <v>1483.410104754008</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>987.960322082656</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>813.507292801529</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>664.5728831402778</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.3354281348222</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>358.8008701617072</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.1231290014983</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>117.9245703139051</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399295</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>63.88244739399295</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>153.9793195704987</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>608.0454549215805</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1189.89843960061</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1802.858354813959</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2297.181247543509</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2676.915881557611</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2676.915881557611</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2641.129951867416</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2487.273185516061</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.331259437741</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.176923033155</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.024814801412</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.787458073211</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.935957867678</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.175659102724</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>211.7955409763861</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>211.7955409763861</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>211.7955409763861</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399295</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399295</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399295</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399295</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399295</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399295</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>142.3679338555494</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>298.3287695220714</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>473.1567265041825</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>649.2622818508096</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>795.9079702090281</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961065</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961065</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961065</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961065</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961065</v>
       </c>
       <c r="U13" t="n">
-        <v>598.0446400632119</v>
+        <v>897.8680081961065</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>897.8680081961065</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>608.4508381591459</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>380.4612872611285</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>211.7955409763861</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1280.556556803302</v>
+        <v>1571.909568269587</v>
       </c>
       <c r="C14" t="n">
-        <v>911.5940398628907</v>
+        <v>1202.947051329176</v>
       </c>
       <c r="D14" t="n">
-        <v>911.5940398628907</v>
+        <v>1202.947051329176</v>
       </c>
       <c r="E14" t="n">
-        <v>525.8057872646464</v>
+        <v>817.1587987309313</v>
       </c>
       <c r="F14" t="n">
-        <v>525.8057872646464</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G14" t="n">
-        <v>107.8419791628332</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548715</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U14" t="n">
-        <v>2388.358616186807</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V14" t="n">
-        <v>2057.295728843236</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="W14" t="n">
-        <v>2057.295728843236</v>
+        <v>2722.114498570601</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.295728843236</v>
+        <v>2348.648740309521</v>
       </c>
       <c r="Y14" t="n">
-        <v>1667.156396867424</v>
+        <v>1958.509408333709</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204942</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615927</v>
+        <v>403.4201994324297</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572644</v>
+        <v>907.7817392985474</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1087.279075653151</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1760.484767905933</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2309.920776658655</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>537.7310191348308</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>220.8817426245308</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866325</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O16" t="n">
-        <v>649.26178935949</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064341</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064341</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064341</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064341</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064341</v>
+        <v>848.2972798983274</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>848.2972798983274</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>848.2972798983274</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036444</v>
+        <v>558.8801098613667</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>558.8801098613667</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>537.7310191348308</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2437.910351053863</v>
+        <v>1983.754668171943</v>
       </c>
       <c r="C17" t="n">
-        <v>2068.947834113451</v>
+        <v>1614.792151231531</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.6821355067</v>
+        <v>1256.52645262478</v>
       </c>
       <c r="E17" t="n">
-        <v>1324.893882908456</v>
+        <v>870.7382000265361</v>
       </c>
       <c r="F17" t="n">
-        <v>913.9079781188484</v>
+        <v>870.7382000265361</v>
       </c>
       <c r="G17" t="n">
-        <v>497.4083823933966</v>
+        <v>453.6504182629636</v>
       </c>
       <c r="H17" t="n">
-        <v>185.2090274288101</v>
+        <v>135.427303035473</v>
       </c>
       <c r="I17" t="n">
-        <v>88.19209906357102</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J17" t="n">
-        <v>325.7601138906743</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K17" t="n">
-        <v>802.5577892093643</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L17" t="n">
-        <v>1446.34409431891</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M17" t="n">
-        <v>2179.286948567235</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2909.457586919646</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3553.749377683565</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>4065.963131975636</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4373.392570021669</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>4409.604953178551</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>4409.604953178551</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T17" t="n">
-        <v>4197.379875828135</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U17" t="n">
-        <v>4197.379875828135</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V17" t="n">
-        <v>3940.88393662499</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="W17" t="n">
-        <v>3588.115281354876</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="X17" t="n">
-        <v>3214.649523093796</v>
+        <v>2370.354508236064</v>
       </c>
       <c r="Y17" t="n">
-        <v>2824.510191117985</v>
+        <v>2370.354508236064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4243502130026</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9713209318757</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0369112706244</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7994562651688</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2648982920538</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
-        <v>221.1382079262947</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>123.2616398061516</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>88.19209906357102</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J18" t="n">
-        <v>235.9926015077585</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K18" t="n">
-        <v>615.2280446173529</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.292889253093</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M18" t="n">
-        <v>1364.943052608666</v>
+        <v>1253.562877620962</v>
       </c>
       <c r="N18" t="n">
-        <v>1643.821094042019</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O18" t="n">
-        <v>1876.720223507067</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.58738236298</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2629.673521079431</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2628.101078434116</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2484.479838900723</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.759034226347</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.640951163502</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.488842931759</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.251486203557</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.399985998024</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.639687233071</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>238.3087384759068</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="C19" t="n">
-        <v>238.3087384759068</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="D19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="E19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="F19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J19" t="n">
-        <v>88.95549972113491</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K19" t="n">
-        <v>220.0468382225161</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L19" t="n">
-        <v>443.325052939061</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M19" t="n">
-        <v>689.1297475364066</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N19" t="n">
-        <v>934.5243723185869</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O19" t="n">
-        <v>1145.169731061406</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P19" t="n">
-        <v>1301.892543347219</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1326.964214835737</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1326.964214835737</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1124.121941858233</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>899.6200615670205</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>610.4822764178462</v>
+        <v>846.0830042674853</v>
       </c>
       <c r="V19" t="n">
-        <v>355.7977882119593</v>
+        <v>591.3985160615985</v>
       </c>
       <c r="W19" t="n">
-        <v>238.3087384759068</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X19" t="n">
-        <v>238.3087384759068</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="Y19" t="n">
-        <v>238.3087384759068</v>
+        <v>73.99179512662049</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2437.910351053863</v>
+        <v>1723.789015635489</v>
       </c>
       <c r="C20" t="n">
-        <v>2068.947834113451</v>
+        <v>1354.826498695077</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.6821355067</v>
+        <v>996.5608000883267</v>
       </c>
       <c r="E20" t="n">
-        <v>1324.893882908456</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="F20" t="n">
-        <v>913.9079781188484</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G20" t="n">
-        <v>497.4083823933966</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H20" t="n">
-        <v>185.2090274288101</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I20" t="n">
-        <v>88.19209906357102</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="J20" t="n">
-        <v>325.7601138906743</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K20" t="n">
-        <v>802.5577892093647</v>
+        <v>666.0988071604006</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.34409431891</v>
+        <v>1218.912065406598</v>
       </c>
       <c r="M20" t="n">
-        <v>2179.286948567235</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N20" t="n">
-        <v>2909.457586919647</v>
+        <v>2477.937544449754</v>
       </c>
       <c r="O20" t="n">
-        <v>3553.749377683566</v>
+        <v>3025.09874921683</v>
       </c>
       <c r="P20" t="n">
-        <v>4065.963131975637</v>
+        <v>3454.413795556123</v>
       </c>
       <c r="Q20" t="n">
-        <v>4373.392570021669</v>
+        <v>3699.589756331023</v>
       </c>
       <c r="R20" t="n">
-        <v>4409.604953178551</v>
+        <v>3699.589756331023</v>
       </c>
       <c r="S20" t="n">
-        <v>4409.604953178551</v>
+        <v>3543.374718827851</v>
       </c>
       <c r="T20" t="n">
-        <v>4409.604953178551</v>
+        <v>3328.574857095562</v>
       </c>
       <c r="U20" t="n">
-        <v>4271.946823968561</v>
+        <v>3074.883153840713</v>
       </c>
       <c r="V20" t="n">
-        <v>3940.88393662499</v>
+        <v>2743.820266497142</v>
       </c>
       <c r="W20" t="n">
-        <v>3588.115281354876</v>
+        <v>2743.820266497142</v>
       </c>
       <c r="X20" t="n">
-        <v>3214.649523093796</v>
+        <v>2370.354508236062</v>
       </c>
       <c r="Y20" t="n">
-        <v>2824.510191117985</v>
+        <v>1980.21517626025</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4243502130026</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9713209318757</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0369112706244</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7994562651688</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2648982920538</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
-        <v>221.1382079262947</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>123.2616398061516</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>88.19209906357102</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="J21" t="n">
-        <v>111.1624765207538</v>
+        <v>192.6510469835157</v>
       </c>
       <c r="K21" t="n">
-        <v>490.3979196303482</v>
+        <v>522.0794512893249</v>
       </c>
       <c r="L21" t="n">
-        <v>1061.731169738511</v>
+        <v>659.3090493050179</v>
       </c>
       <c r="M21" t="n">
-        <v>1319.381333094084</v>
+        <v>1299.854398772121</v>
       </c>
       <c r="N21" t="n">
-        <v>1598.259374527438</v>
+        <v>1973.060091024903</v>
       </c>
       <c r="O21" t="n">
-        <v>1876.720223507067</v>
+        <v>2132.572403693663</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.58738236298</v>
+        <v>2425.623396507184</v>
       </c>
       <c r="Q21" t="n">
-        <v>2629.673521079431</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2628.101078434116</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2484.479838900723</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.759034226347</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.640951163502</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.488842931759</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.251486203557</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.399985998024</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.639687233071</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3170.832837406384</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="C22" t="n">
-        <v>3170.832837406384</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="D22" t="n">
-        <v>3170.832837406384</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="E22" t="n">
-        <v>3170.832837406384</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="F22" t="n">
-        <v>3170.832837406384</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="G22" t="n">
-        <v>3170.832837406384</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="H22" t="n">
-        <v>3170.832837406384</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="I22" t="n">
-        <v>3170.832837406384</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="J22" t="n">
-        <v>3171.596238063948</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="K22" t="n">
-        <v>3302.68757656533</v>
+        <v>175.0397247222298</v>
       </c>
       <c r="L22" t="n">
-        <v>3525.965791281875</v>
+        <v>359.8727196230476</v>
       </c>
       <c r="M22" t="n">
-        <v>3771.77048587922</v>
+        <v>565.142320342285</v>
       </c>
       <c r="N22" t="n">
-        <v>4017.1651106614</v>
+        <v>770.9656851783886</v>
       </c>
       <c r="O22" t="n">
-        <v>4227.810469404219</v>
+        <v>945.060580566987</v>
       </c>
       <c r="P22" t="n">
-        <v>4384.533281690033</v>
+        <v>1070.508157165602</v>
       </c>
       <c r="Q22" t="n">
-        <v>4409.604953178551</v>
+        <v>1073.926476585962</v>
       </c>
       <c r="R22" t="n">
-        <v>4409.604953178551</v>
+        <v>1073.926476585962</v>
       </c>
       <c r="S22" t="n">
-        <v>4409.604953178551</v>
+        <v>1073.926476585962</v>
       </c>
       <c r="T22" t="n">
-        <v>4409.604953178551</v>
+        <v>1073.926476585962</v>
       </c>
       <c r="U22" t="n">
-        <v>4163.716625690779</v>
+        <v>846.0830042674853</v>
       </c>
       <c r="V22" t="n">
-        <v>3909.032137484893</v>
+        <v>591.3985160615985</v>
       </c>
       <c r="W22" t="n">
-        <v>3619.614967447932</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X22" t="n">
-        <v>3391.625416549914</v>
+        <v>73.99179512662046</v>
       </c>
       <c r="Y22" t="n">
-        <v>3170.832837406384</v>
+        <v>73.99179512662046</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6010,28 +6010,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6189,10 +6189,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028583</v>
@@ -6387,19 +6387,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,46 +6448,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>3782.260917288848</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>3492.843747251887</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916676</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.4872769945463</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>613.5510940666394</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>463.4344546543036</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>315.5213610719105</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>315.5213610719105</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>315.5213610719105</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>964.135741824786</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.5778825909698</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>699.5778825909698</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>699.5778825909698</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617344999</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>699.5778825909698</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,16 +7159,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,13 +7177,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>665.6859735286132</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C40" t="n">
-        <v>665.6859735286132</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D40" t="n">
-        <v>665.6859735286132</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E40" t="n">
-        <v>665.6859735286132</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7374,10 +7374,10 @@
         <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>665.6859735286132</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,31 +7429,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,19 +7633,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>820.5263570570736</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>820.5263570570736</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>820.5263570570736</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>820.5263570570736</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>820.5263570570736</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>28.33919200008276</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>60.49886712174838</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>6.900745232381553</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928739</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>346.2692436516231</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>7.083830627505179</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9248,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>290.7712488666683</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>48.10560617264136</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,25 +9479,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>46.02193890361809</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>186.2236012992153</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>29.47535963978268</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>52.49733361305249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>413.3542113413185</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>44.12418115850352</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>135.355334254343</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>27.47001067514526</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>174.400391390786</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.1169375972939</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>154.4561466672648</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>129.1656554187736</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>31.56442760231819</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>12.97296450542717</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>137.9932954615211</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>208.7844338901267</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>224.2110473578499</v>
       </c>
       <c r="U13" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2713543513364</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>51.60556453019976</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>202.5536570132712</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>270.562765395313</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853702</v>
+        <v>17.69584188176921</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401877</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6470535328243</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>57.67488806412656</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>141.3836306779004</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1082018880815</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>73.82127865902126</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.6595749469737</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>150.3897769216911</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>115.4115131709638</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>117.4286075662165</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>60.69561706280456</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>170.208839097899</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>128.8719426449668</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752157</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>141.3836306779004</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1028265769112</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>114.8266539701914</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.6595749469737</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>150.3897769216911</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>115.4115131709638</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176925</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>117.4286075662165</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
-        <v>200.8138502477291</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>222.2568614883001</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>42.81696308478865</v>
+        <v>60.69561706280524</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>67.59055298324057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>48.75693659211571</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871777</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>43.21184691629972</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>121.344469745309</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>8.463497070472869</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686546</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>39.8017075778067</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>688366.5430723322</v>
+        <v>744560.2896414556</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>688366.5430723322</v>
+        <v>801712.5440420802</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877736.4028236921</v>
+        <v>801712.5440420803</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>877736.4028236923</v>
+        <v>801712.5440420799</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
@@ -26322,22 +26322,22 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>332525.5015181212</v>
+        <v>360224.5155594117</v>
       </c>
       <c r="F2" t="n">
-        <v>332525.5015181213</v>
+        <v>388396.0040473215</v>
       </c>
       <c r="G2" t="n">
-        <v>425869.961804144</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="H2" t="n">
-        <v>425869.9618041441</v>
+        <v>388396.0040473215</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983652</v>
@@ -26346,13 +26346,13 @@
         <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="N2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="O2" t="n">
         <v>449683.4186983651</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983652</v>
@@ -26374,37 +26374,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>123022.0575261933</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>122192.1638359265</v>
       </c>
       <c r="G3" t="n">
-        <v>397686.3454566924</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99295.86104592177</v>
+        <v>255532.1595990997</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>30961.93223513147</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>30950.65265136584</v>
       </c>
       <c r="O3" t="n">
-        <v>103026.0539211864</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361483</v>
+        <v>9025.043319411174</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361485</v>
+        <v>8673.279618076551</v>
       </c>
       <c r="G4" t="n">
-        <v>8209.899686630497</v>
+        <v>8673.279618076551</v>
       </c>
       <c r="H4" t="n">
-        <v>8209.899686630497</v>
+        <v>8673.279618076551</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="K4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>59117.03032849837</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="G5" t="n">
-        <v>83121.46425552088</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="H5" t="n">
-        <v>83121.46425552088</v>
+        <v>69171.54328360132</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348644.9883219118</v>
+        <v>-348644.9883219119</v>
       </c>
       <c r="C6" t="n">
         <v>241322.8908926326</v>
@@ -26530,40 +26530,40 @@
         <v>241322.8908926327</v>
       </c>
       <c r="E6" t="n">
-        <v>273923.0054203502</v>
+        <v>164196.2755978066</v>
       </c>
       <c r="F6" t="n">
-        <v>273923.0054203505</v>
+        <v>184719.7558477762</v>
       </c>
       <c r="G6" t="n">
-        <v>-63147.74759469974</v>
+        <v>306911.9196837027</v>
       </c>
       <c r="H6" t="n">
-        <v>334538.5978619927</v>
+        <v>306911.9196837031</v>
       </c>
       <c r="I6" t="n">
-        <v>250483.5000477193</v>
+        <v>93272.61023481976</v>
       </c>
       <c r="J6" t="n">
-        <v>173356.1419010481</v>
+        <v>172381.5506413265</v>
       </c>
       <c r="K6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339192</v>
       </c>
       <c r="L6" t="n">
-        <v>349779.361093641</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="M6" t="n">
-        <v>349779.361093641</v>
+        <v>317842.837598788</v>
       </c>
       <c r="N6" t="n">
-        <v>349779.3610936411</v>
+        <v>317854.1171825537</v>
       </c>
       <c r="O6" t="n">
-        <v>246753.3071724548</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="P6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339195</v>
       </c>
     </row>
   </sheetData>
@@ -26740,37 +26740,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>484.695885736869</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170865</v>
+        <v>593.4761003380632</v>
       </c>
       <c r="G3" t="n">
-        <v>738.3242645507755</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="H3" t="n">
-        <v>738.3242645507755</v>
+        <v>593.4761003380629</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26795,19 +26795,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>798.5305924249118</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="G4" t="n">
-        <v>1102.401238294638</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="H4" t="n">
-        <v>1102.401238294638</v>
+        <v>924.8974390827557</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26968,25 +26968,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>106.9522215197823</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>108.7802146011942</v>
       </c>
       <c r="G3" t="n">
-        <v>360.5806003336891</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>92.05814090332467</v>
+        <v>236.9063051160371</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.2433196703561</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>126.3668466578443</v>
       </c>
       <c r="G4" t="n">
-        <v>428.1139655400823</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-2.861948103225814e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>112.8124049589353</v>
+        <v>290.3162041708172</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703563</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>126.3668466578443</v>
       </c>
       <c r="O4" t="n">
-        <v>428.1139655400823</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703561</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>126.3668466578443</v>
       </c>
       <c r="O4" t="n">
-        <v>428.1139655400823</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.2443142804547</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>99.48359897777895</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>100.8154113631038</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>139.2554461912031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>18.57271313011761</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>87.68168174504791</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>109.8063681738559</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>14.59587156758264</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>210.1404640128465</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>100.384131757374</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>23.70481751979031</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>187.9805657311404</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.948526173816557</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>19.95534367759882</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>75.12055531606291</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>165.3787233449632</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>247.8598362826181</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>307.4920441745566</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>342.1441465181668</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>347.6803965095231</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>328.3047393686347</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>280.2004994525385</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>210.4189058527329</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>122.3991072660044</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>44.40204018584485</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>8.529673325881983</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1558820939053246</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.042553414603832</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>10.06887113577911</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>35.89493116070209</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>98.49843466658393</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>168.3495134450406</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>226.3666964472047</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>264.1592577265936</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>271.1507672482132</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>248.0499784298862</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>199.0819761623755</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>133.08102885364</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>64.72976375935019</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>19.36497241599659</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>4.20222187728474</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.06858904043446262</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.8740417611648457</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>7.771025840174724</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>26.28481950848464</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>61.79475251435458</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>101.5477609789702</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>129.9461723826354</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>137.0100189796858</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>133.7522269607987</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>123.5418300235548</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>105.7113780957918</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>73.18907874626721</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>39.30009591564841</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>15.23216414684553</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>3.734542070431612</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.04767500515444618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>2.385833569198242</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554464</v>
+        <v>91.97984867651533</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>202.4946418937395</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081576</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630668</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405366</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338303</v>
+        <v>425.7102483359657</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954665</v>
+        <v>343.085849542669</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044136</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633793</v>
+        <v>149.8691179411492</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727381</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T14" t="n">
-        <v>6.64752920647355</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141105</v>
+        <v>1.276533498840362</v>
       </c>
       <c r="H15" t="n">
-        <v>7.84709008118891</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890688</v>
+        <v>43.95082441182828</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396473</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>206.1321659070422</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478006</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>323.4444746842444</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736699</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>303.7197925947067</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671566</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607452</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034979</v>
+        <v>79.2570535508078</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>23.71104985784619</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372663</v>
+        <v>5.145325813308301</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.08398246702897125</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078608</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644439</v>
+        <v>9.515075838206988</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813575</v>
+        <v>75.66333823490356</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302235</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246923</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666593</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175839</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383796</v>
+        <v>129.4361645720916</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678005</v>
+        <v>89.61489115104754</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701162</v>
+        <v>48.12020970937803</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>18.65071613685355</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197222</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.05837469839390792</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.968137746937789</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H17" t="n">
-        <v>30.39744070082664</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>114.4291304888192</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J17" t="n">
-        <v>251.9169810991614</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>377.558251927038</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L17" t="n">
-        <v>468.3943974998855</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M17" t="n">
-        <v>521.1790171569904</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N17" t="n">
-        <v>529.6122385304774</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O17" t="n">
-        <v>500.0978188093648</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P17" t="n">
-        <v>426.821918181838</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q17" t="n">
-        <v>320.5254851196283</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R17" t="n">
-        <v>186.447282746081</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>67.63643890834493</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T17" t="n">
-        <v>12.99302298722018</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2374510197550231</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.588093701109215</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>15.33764179755479</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>54.67778751626027</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>150.0400281385685</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>256.4423061128859</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>344.8183275149636</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M18" t="n">
-        <v>402.3867241801726</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>413.0367034301551</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O18" t="n">
-        <v>377.8478903687351</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P18" t="n">
-        <v>303.2562436793554</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>202.7187678819413</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>98.60111593378097</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S18" t="n">
-        <v>29.49814396577861</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>6.401132067190212</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1044798487571853</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.331404411485005</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>11.83739558574851</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I19" t="n">
-        <v>40.03896175629453</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J19" t="n">
-        <v>94.13029189198984</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K19" t="n">
-        <v>154.6849852616214</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L19" t="n">
-        <v>197.9435249584161</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>208.7036933385085</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>203.74118598661</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O19" t="n">
-        <v>188.1879617251715</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>161.0273117308772</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>111.4869639471671</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R19" t="n">
-        <v>59.86478381095302</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S19" t="n">
-        <v>23.20274778924322</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>5.688727939981383</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07262205880827308</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.968137746937789</v>
+        <v>2.385833569198241</v>
       </c>
       <c r="H20" t="n">
-        <v>30.39744070082664</v>
+        <v>24.43391804055149</v>
       </c>
       <c r="I20" t="n">
-        <v>114.4291304888192</v>
+        <v>91.97984867651527</v>
       </c>
       <c r="J20" t="n">
-        <v>251.9169810991614</v>
+        <v>202.4946418937394</v>
       </c>
       <c r="K20" t="n">
-        <v>377.558251927038</v>
+        <v>303.486976877901</v>
       </c>
       <c r="L20" t="n">
-        <v>468.3943974998855</v>
+        <v>376.5024309712517</v>
       </c>
       <c r="M20" t="n">
-        <v>521.1790171569904</v>
+        <v>418.931498707481</v>
       </c>
       <c r="N20" t="n">
-        <v>529.6122385304774</v>
+        <v>425.7102483359655</v>
       </c>
       <c r="O20" t="n">
-        <v>500.0978188093648</v>
+        <v>401.9861157822505</v>
       </c>
       <c r="P20" t="n">
-        <v>426.821918181838</v>
+        <v>343.0858495426688</v>
       </c>
       <c r="Q20" t="n">
-        <v>320.5254851196283</v>
+        <v>257.6431848457567</v>
       </c>
       <c r="R20" t="n">
-        <v>186.447282746081</v>
+        <v>149.8691179411491</v>
       </c>
       <c r="S20" t="n">
-        <v>67.63643890834493</v>
+        <v>54.36718245810497</v>
       </c>
       <c r="T20" t="n">
-        <v>12.99302298722018</v>
+        <v>10.4439864491653</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2374510197550231</v>
+        <v>0.1908666855358593</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.588093701109215</v>
+        <v>1.276533498840362</v>
       </c>
       <c r="H21" t="n">
-        <v>15.33764179755479</v>
+        <v>12.32862615985297</v>
       </c>
       <c r="I21" t="n">
-        <v>54.67778751626027</v>
+        <v>43.95082441182825</v>
       </c>
       <c r="J21" t="n">
-        <v>150.0400281385685</v>
+        <v>120.6044214847379</v>
       </c>
       <c r="K21" t="n">
-        <v>256.4423061128859</v>
+        <v>206.1321659070421</v>
       </c>
       <c r="L21" t="n">
-        <v>344.8183275149636</v>
+        <v>277.1701353512812</v>
       </c>
       <c r="M21" t="n">
-        <v>402.3867241801726</v>
+        <v>323.4444746842443</v>
       </c>
       <c r="N21" t="n">
-        <v>413.0367034301551</v>
+        <v>332.0050874900641</v>
       </c>
       <c r="O21" t="n">
-        <v>377.8478903687351</v>
+        <v>303.7197925947066</v>
       </c>
       <c r="P21" t="n">
-        <v>303.2562436793554</v>
+        <v>243.7619099671565</v>
       </c>
       <c r="Q21" t="n">
-        <v>202.7187678819413</v>
+        <v>162.9483813607451</v>
       </c>
       <c r="R21" t="n">
-        <v>98.60111593378097</v>
+        <v>79.25705355080775</v>
       </c>
       <c r="S21" t="n">
-        <v>29.49814396577861</v>
+        <v>23.71104985784618</v>
       </c>
       <c r="T21" t="n">
-        <v>6.401132067190212</v>
+        <v>5.145325813308299</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1044798487571853</v>
+        <v>0.08398246702897121</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.331404411485005</v>
+        <v>1.07020280388831</v>
       </c>
       <c r="H22" t="n">
-        <v>11.83739558574851</v>
+        <v>9.515075838206982</v>
       </c>
       <c r="I22" t="n">
-        <v>40.03896175629453</v>
+        <v>32.18391704784119</v>
       </c>
       <c r="J22" t="n">
-        <v>94.13029189198984</v>
+        <v>75.66333823490352</v>
       </c>
       <c r="K22" t="n">
-        <v>154.6849852616214</v>
+        <v>124.3381075790236</v>
       </c>
       <c r="L22" t="n">
-        <v>197.9435249584161</v>
+        <v>159.1099695889948</v>
       </c>
       <c r="M22" t="n">
-        <v>208.7036933385085</v>
+        <v>167.7591540676921</v>
       </c>
       <c r="N22" t="n">
-        <v>203.74118598661</v>
+        <v>163.7702163441085</v>
       </c>
       <c r="O22" t="n">
-        <v>188.1879617251715</v>
+        <v>151.2683017714132</v>
       </c>
       <c r="P22" t="n">
-        <v>161.0273117308772</v>
+        <v>129.4361645720915</v>
       </c>
       <c r="Q22" t="n">
-        <v>111.4869639471671</v>
+        <v>89.6148911510475</v>
       </c>
       <c r="R22" t="n">
-        <v>59.86478381095302</v>
+        <v>48.120209709378</v>
       </c>
       <c r="S22" t="n">
-        <v>23.20274778924322</v>
+        <v>18.65071613685354</v>
       </c>
       <c r="T22" t="n">
-        <v>5.688727939981383</v>
+        <v>4.572684707522778</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07262205880827308</v>
+        <v>0.05837469839390789</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,43 +32782,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,43 +32864,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N25" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,43 +33019,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>153.4294339903507</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>351.9153978088023</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>489.3868437550198</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>561.3114467837265</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>555.6142573249164</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>479.0067092096933</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>370.7662118687516</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>200.4282066381881</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>91.00694159243001</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>458.6526619707897</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>587.7302875545752</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>619.1514295084335</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>499.3160532621712</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>383.5703373879825</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>79.27826915308738</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>157.5361976429515</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>176.5938959415263</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>177.8843993400273</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>148.1269579375945</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>102.9899373606853</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343418</v>
+        <v>407.5425384040853</v>
       </c>
       <c r="L14" t="n">
-        <v>421.53613944353</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060963</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492235</v>
+        <v>633.644109151359</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>433.6515619588821</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898688</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031297</v>
+        <v>332.7559639452618</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713856</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M15" t="n">
-        <v>410.0055067279169</v>
+        <v>181.3104407622261</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>680.0057497502845</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>554.9858674269918</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>116.8713331803315</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.811094813734</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.8709020871395</v>
+        <v>102.0686157531408</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>148.3708461458879</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854529</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873145</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353159</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>239.9676917445489</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K17" t="n">
-        <v>481.6138134532222</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L17" t="n">
-        <v>650.2891970803487</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M17" t="n">
-        <v>740.3463174225502</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N17" t="n">
-        <v>737.5460993458706</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>650.7997886504234</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P17" t="n">
-        <v>517.3876305980511</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.5347859050835</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R17" t="n">
-        <v>36.57816480493136</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.2934368123106</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>383.0661041511055</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>497.0351966017578</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M18" t="n">
-        <v>260.2526902581543</v>
+        <v>229.4160469348675</v>
       </c>
       <c r="N18" t="n">
-        <v>281.6949913468218</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O18" t="n">
-        <v>235.2516459242906</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>487.7446049049623</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>272.8142815317689</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7711117753170669</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>132.4154934357386</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>225.5335502187323</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M19" t="n">
-        <v>248.2875703003491</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>247.8733583658386</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O19" t="n">
-        <v>212.7730896392112</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>158.3058709957707</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.32492069547271</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>239.9676917445489</v>
+        <v>190.5453525391269</v>
       </c>
       <c r="K20" t="n">
-        <v>481.6138134532222</v>
+        <v>407.5425384040852</v>
       </c>
       <c r="L20" t="n">
-        <v>650.2891970803487</v>
+        <v>558.397230551715</v>
       </c>
       <c r="M20" t="n">
-        <v>740.3463174225502</v>
+        <v>638.0987989730407</v>
       </c>
       <c r="N20" t="n">
-        <v>737.5460993458706</v>
+        <v>633.6441091513587</v>
       </c>
       <c r="O20" t="n">
-        <v>650.7997886504234</v>
+        <v>552.6880856233091</v>
       </c>
       <c r="P20" t="n">
-        <v>517.3876305980511</v>
+        <v>433.6515619588819</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.5347859050835</v>
+        <v>247.6524856312119</v>
       </c>
       <c r="R20" t="n">
-        <v>36.57816480493136</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>23.20240147190179</v>
+        <v>119.85783015848</v>
       </c>
       <c r="K21" t="n">
-        <v>383.0661041511055</v>
+        <v>332.7559639452617</v>
       </c>
       <c r="L21" t="n">
-        <v>577.1042930385486</v>
+        <v>138.615755571407</v>
       </c>
       <c r="M21" t="n">
-        <v>260.2526902581543</v>
+        <v>647.0155045122258</v>
       </c>
       <c r="N21" t="n">
-        <v>281.6949913468218</v>
+        <v>680.0057497502844</v>
       </c>
       <c r="O21" t="n">
-        <v>281.2735848279087</v>
+        <v>161.1235481502621</v>
       </c>
       <c r="P21" t="n">
-        <v>487.7446049049623</v>
+        <v>296.0111038520416</v>
       </c>
       <c r="Q21" t="n">
-        <v>272.8142815317689</v>
+        <v>233.0438950105727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7711117753170669</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>132.4154934357386</v>
+        <v>102.0686157531408</v>
       </c>
       <c r="L22" t="n">
-        <v>225.5335502187323</v>
+        <v>186.6999948493109</v>
       </c>
       <c r="M22" t="n">
-        <v>248.2875703003491</v>
+        <v>207.3430310295327</v>
       </c>
       <c r="N22" t="n">
-        <v>247.8733583658386</v>
+        <v>207.9023887233371</v>
       </c>
       <c r="O22" t="n">
-        <v>212.7730896392112</v>
+        <v>175.8534296854529</v>
       </c>
       <c r="P22" t="n">
-        <v>158.3058709957707</v>
+        <v>126.714723836985</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.32492069547271</v>
+        <v>3.452847899353117</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
